--- a/meta/stores/CommonStatusStore.xlsx
+++ b/meta/stores/CommonStatusStore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-front-core/meta/stores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9594E817-2D6F-9547-9421-399D5F670C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76E7D3D-C6EE-1643-BD16-7619D96A2930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9840" windowWidth="26740" windowHeight="18960" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11180" yWindow="5140" windowWidth="26740" windowHeight="18960" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VueStore" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>パッケージ</t>
   </si>
@@ -513,13 +513,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>isOverlay stateを更新します</t>
-    <rPh sb="16" eb="18">
-      <t xml:space="preserve">コウシｎ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>true で App 全体にoverlayを表示します。</t>
     <rPh sb="11" eb="13">
       <t xml:space="preserve">ゼンタイ </t>
@@ -530,15 +523,58 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>changeOverlay</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>showOverlay</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>overlay</t>
+    <t>processing</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>changeProcessing</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>showProcessing</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>processing stateを更新します</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">コウシｎ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>logout</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログアウトオーバーレイコンポーネントを表示します。</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>changeLogout</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>show</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>logout overley を更新します。</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">コウシｎ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>true で App 全体にlogoutOverleyを表示します。</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ゼンタイニ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ヒョウジシマス。 </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1376,6 +1412,51 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1399,51 +1480,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1858,8 +1894,8 @@
   </sheetPr>
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1933,10 +1969,10 @@
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
@@ -1948,10 +1984,10 @@
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="103"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="81" t="s">
         <v>29</v>
       </c>
@@ -1967,11 +2003,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="106"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="65"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
@@ -2006,10 +2042,10 @@
       <c r="G12"/>
     </row>
     <row r="13" spans="1:11" s="32" customFormat="1">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="108"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="64" t="s">
         <v>14</v>
       </c>
@@ -2158,22 +2194,22 @@
       <c r="B24" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="109" t="s">
+      <c r="F24" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="101" t="s">
+      <c r="G24" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="101"/>
+      <c r="H24" s="116"/>
       <c r="I24" s="16"/>
       <c r="J24" s="17"/>
       <c r="K24" s="9"/>
@@ -2181,12 +2217,12 @@
     <row r="25" spans="1:11">
       <c r="A25" s="100"/>
       <c r="B25" s="100"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
       <c r="I25" s="18"/>
       <c r="J25" s="29"/>
       <c r="K25" s="15"/>
@@ -2196,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="70" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="77" t="s">
         <v>54</v>
@@ -2219,12 +2255,20 @@
         <f>A26+1</f>
         <v>2</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="77"/>
+      <c r="B27" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>54</v>
+      </c>
       <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="20" t="b">
+        <v>0</v>
+      </c>
       <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="28"/>
@@ -2434,18 +2478,18 @@
       <c r="B44" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="111" t="s">
+      <c r="C44" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="112"/>
-      <c r="E44" s="101" t="s">
+      <c r="D44" s="102"/>
+      <c r="E44" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="115"/>
-      <c r="G44" s="101" t="s">
+      <c r="F44" s="110"/>
+      <c r="G44" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="101"/>
+      <c r="H44" s="116"/>
       <c r="I44" s="16"/>
       <c r="J44" s="17"/>
       <c r="K44" s="9"/>
@@ -2453,12 +2497,12 @@
     <row r="45" spans="1:11">
       <c r="A45" s="100"/>
       <c r="B45" s="100"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="116"/>
       <c r="I45" s="18"/>
       <c r="J45" s="29"/>
       <c r="K45" s="15"/>
@@ -2605,18 +2649,18 @@
       <c r="B57" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="111" t="s">
+      <c r="C57" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="112"/>
-      <c r="E57" s="101" t="s">
+      <c r="D57" s="102"/>
+      <c r="E57" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="115"/>
-      <c r="G57" s="101" t="s">
+      <c r="F57" s="110"/>
+      <c r="G57" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="H57" s="101"/>
+      <c r="H57" s="116"/>
       <c r="I57" s="16"/>
       <c r="J57" s="17"/>
       <c r="K57" s="9"/>
@@ -2624,12 +2668,12 @@
     <row r="58" spans="1:11">
       <c r="A58" s="100"/>
       <c r="B58" s="100"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="101"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
       <c r="I58" s="18"/>
       <c r="J58" s="29"/>
       <c r="K58" s="15"/>
@@ -2863,26 +2907,26 @@
       <c r="K76" s="15"/>
     </row>
     <row r="77" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A77" s="121" t="s">
+      <c r="A77" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="121" t="s">
+      <c r="B77" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="111" t="s">
+      <c r="C77" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="115"/>
-      <c r="E77" s="109" t="s">
+      <c r="D77" s="110"/>
+      <c r="E77" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="109" t="s">
+      <c r="F77" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="G77" s="117" t="s">
+      <c r="G77" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="H77" s="119" t="s">
+      <c r="H77" s="114" t="s">
         <v>1</v>
       </c>
       <c r="I77" s="16"/>
@@ -2890,14 +2934,14 @@
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="122"/>
-      <c r="B78" s="122"/>
-      <c r="C78" s="113"/>
-      <c r="D78" s="116"/>
-      <c r="E78" s="110"/>
-      <c r="F78" s="110"/>
-      <c r="G78" s="118"/>
-      <c r="H78" s="120"/>
+      <c r="A78" s="109"/>
+      <c r="B78" s="109"/>
+      <c r="C78" s="103"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="107"/>
+      <c r="F78" s="107"/>
+      <c r="G78" s="113"/>
+      <c r="H78" s="115"/>
       <c r="I78" s="18"/>
       <c r="J78" s="29"/>
       <c r="K78" s="15"/>
@@ -2917,7 +2961,7 @@
       <c r="F79" s="68"/>
       <c r="G79" s="91"/>
       <c r="H79" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I79" s="92"/>
       <c r="J79" s="28"/>
@@ -2939,7 +2983,7 @@
       <c r="F80" s="68"/>
       <c r="G80" s="91"/>
       <c r="H80" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I80" s="92"/>
       <c r="J80" s="28"/>
@@ -3056,20 +3100,20 @@
       <c r="B90" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="111" t="s">
+      <c r="C90" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="112"/>
-      <c r="E90" s="123" t="s">
+      <c r="D90" s="102"/>
+      <c r="E90" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="F90" s="109" t="s">
+      <c r="F90" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="G90" s="117" t="s">
+      <c r="G90" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="H90" s="119" t="s">
+      <c r="H90" s="114" t="s">
         <v>1</v>
       </c>
       <c r="I90" s="16"/>
@@ -3079,12 +3123,12 @@
     <row r="91" spans="1:11">
       <c r="A91" s="100"/>
       <c r="B91" s="100"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="114"/>
-      <c r="E91" s="123"/>
-      <c r="F91" s="110"/>
-      <c r="G91" s="118"/>
-      <c r="H91" s="120"/>
+      <c r="C91" s="103"/>
+      <c r="D91" s="104"/>
+      <c r="E91" s="105"/>
+      <c r="F91" s="107"/>
+      <c r="G91" s="113"/>
+      <c r="H91" s="115"/>
       <c r="I91" s="18"/>
       <c r="J91" s="29"/>
       <c r="K91" s="15"/>
@@ -3093,13 +3137,19 @@
       <c r="A92" s="19">
         <v>1</v>
       </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="85"/>
+      <c r="B92" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="85" t="s">
+        <v>46</v>
+      </c>
       <c r="D92" s="88"/>
       <c r="E92" s="82"/>
       <c r="F92" s="68"/>
       <c r="G92" s="91"/>
-      <c r="H92" s="20"/>
+      <c r="H92" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="I92" s="21"/>
       <c r="J92" s="28"/>
       <c r="K92" s="15"/>
@@ -3109,13 +3159,19 @@
         <f>A92+1</f>
         <v>2</v>
       </c>
-      <c r="B93" s="70"/>
-      <c r="C93" s="85"/>
+      <c r="B93" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" s="85" t="s">
+        <v>54</v>
+      </c>
       <c r="D93" s="88"/>
       <c r="E93" s="82"/>
       <c r="F93" s="68"/>
       <c r="G93" s="91"/>
-      <c r="H93" s="20"/>
+      <c r="H93" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="I93" s="21"/>
       <c r="J93" s="28"/>
       <c r="K93" s="15"/>
@@ -3199,16 +3255,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
     <mergeCell ref="G77:G78"/>
     <mergeCell ref="H77:H78"/>
     <mergeCell ref="G90:G91"/>
@@ -3217,25 +3282,16 @@
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="G44:H45"/>
     <mergeCell ref="G57:H58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G24:H25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
